--- a/module1/DAT101x_Labfiles/DAT101x_Labfiles/curated.xlsx
+++ b/module1/DAT101x_Labfiles/DAT101x_Labfiles/curated.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin17h\Documents\datasc\module1\DAT101x_Labfiles\DAT101x_Labfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\module1\DAT101x_Labfiles\DAT101x_Labfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$G$32</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$32</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$32</definedName>
     <definedName name="Slicer_Day">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId4"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -72,13 +86,67 @@
   <si>
     <t>Day</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sunday Total</t>
+  </si>
+  <si>
+    <t>Monday Total</t>
+  </si>
+  <si>
+    <t>Tuesday Total</t>
+  </si>
+  <si>
+    <t>Wednesday Total</t>
+  </si>
+  <si>
+    <t>Thursday Total</t>
+  </si>
+  <si>
+    <t>Friday Total</t>
+  </si>
+  <si>
+    <t>Saturday Total</t>
+  </si>
+  <si>
+    <t>Sum of Lemon</t>
+  </si>
+  <si>
+    <t>Sum of Orange</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,25 +177,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -140,28 +229,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +252,648 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[curated.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Lemon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$4:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Sunday</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Monday</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tuesday</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Wednesday</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Thursday</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Friday</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Saturday</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40AA-43A2-8F42-F368AA9738B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$4:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Beach</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Park</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Sunday</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Monday</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tuesday</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Wednesday</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Thursday</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Friday</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Saturday</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40AA-43A2-8F42-F368AA9738B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="605565832"/>
+        <c:axId val="605570096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="605565832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605570096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="605570096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605565832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -216,7 +932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -296,7 +1011,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -398,7 +1113,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$32</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
@@ -497,6 +1212,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4072-478C-A87B-D3C3EE198EAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -627,6 +1347,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4072-478C-A87B-D3C3EE198EAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -673,7 +1398,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -703,7 +1427,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -793,7 +1517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -823,7 +1546,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -868,7 +1591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -935,8 +1657,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -975,7 +1697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1040,7 +1761,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -1240,6 +1961,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A52-4AE4-8E39-85EA67CFF5A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1269,7 +1995,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -1469,6 +2195,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A52-4AE4-8E39-85EA67CFF5A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1490,7 +2221,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1599,7 +2330,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,8 +2396,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1706,7 +2436,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1802,6 +2531,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8B69-46DD-9A88-74EDE57DE7D6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1822,6 +2556,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8B69-46DD-9A88-74EDE57DE7D6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1838,6 +2577,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B69-46DD-9A88-74EDE57DE7D6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1859,7 +2603,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1926,8 +2669,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1971,7 +2714,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2237,6 +2979,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DBC-43BF-A128-4E887A9D6D41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2418,6 +3165,102 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{F4EB4877-44EF-4FF7-A660-DAD17A50E39F}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8A31B5AD-3C8D-4F96-B498-3CC6F9FB3682}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Lemon</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{84C78739-6DFD-4CBA-98CA-2B38A537E02A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Orange</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2578,8 +3421,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2687,11 +3650,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2702,11 +3660,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2738,9 +3691,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3095,7 +4045,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3203,6 +4153,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3213,6 +4168,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3244,6 +4204,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3598,7 +4561,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3655,7 +4618,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3706,13 +4669,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3723,19 +4679,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3773,7 +4722,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3816,23 +4765,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3937,8 +4885,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4070,20 +5018,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4117,7 +5064,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4144,8 +5091,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4174,7 +5121,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4225,6 +5172,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4235,18 +5189,25 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4281,7 +5242,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4602,6 +5563,49 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4614,8 +5618,234 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4628,11 +5858,1311 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E009339B-04A9-4E6D-9DC2-5E4E9EB52B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4647,11 +7177,17 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Day"/>
+            <xdr:cNvPr id="2" name="Day">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -4665,7 +7201,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4721,7 +7257,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4751,7 +7293,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4781,7 +7329,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4811,7 +7365,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4826,7 +7386,816 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6985E67-85FB-4474-8EF6-4914BC68F7FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3705225" y="1038225"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97154129-B443-42B0-A436-F6A60A19727D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6634162" y="2705100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ramneek singh" refreshedDate="42828.267181249998" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-07-01T00:00:00" maxDate="2016-08-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Day" numFmtId="14">
+      <sharedItems count="7">
+        <s v="Friday"/>
+        <s v="Saturday"/>
+        <s v="Sunday"/>
+        <s v="Monday"/>
+        <s v="Tuesday"/>
+        <s v="Wednesday"/>
+        <s v="Thursday"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Park"/>
+        <s v="Beach"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Lemon" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="71" maxValue="176"/>
+    </cacheField>
+    <cacheField name="Orange" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="42" maxValue="129"/>
+    </cacheField>
+    <cacheField name="Temperature" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="84"/>
+    </cacheField>
+    <cacheField name="Leaflets" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="68" maxValue="158"/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.5"/>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113" maxValue="305"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="41" maxValue="134.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <d v="2016-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="67"/>
+    <n v="70"/>
+    <n v="90"/>
+    <n v="0.25"/>
+    <n v="164"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <d v="2016-07-02T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="67"/>
+    <n v="72"/>
+    <n v="90"/>
+    <n v="0.25"/>
+    <n v="165"/>
+    <n v="41.25"/>
+  </r>
+  <r>
+    <d v="2016-07-03T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="110"/>
+    <n v="77"/>
+    <n v="71"/>
+    <n v="104"/>
+    <n v="0.25"/>
+    <n v="187"/>
+    <n v="46.75"/>
+  </r>
+  <r>
+    <d v="2016-07-04T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="99"/>
+    <n v="76"/>
+    <n v="98"/>
+    <n v="0.25"/>
+    <n v="233"/>
+    <n v="58.25"/>
+  </r>
+  <r>
+    <d v="2016-07-05T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="159"/>
+    <n v="118"/>
+    <n v="78"/>
+    <n v="135"/>
+    <n v="0.25"/>
+    <n v="277"/>
+    <n v="69.25"/>
+  </r>
+  <r>
+    <d v="2016-07-06T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="103"/>
+    <n v="69"/>
+    <n v="82"/>
+    <n v="90"/>
+    <n v="0.25"/>
+    <n v="172"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <d v="2016-07-07T00:00:00"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="143"/>
+    <n v="101"/>
+    <n v="81"/>
+    <n v="135"/>
+    <n v="0.25"/>
+    <n v="244"/>
+    <n v="61"/>
+  </r>
+  <r>
+    <d v="2016-07-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="123"/>
+    <n v="86"/>
+    <n v="82"/>
+    <n v="113"/>
+    <n v="0.25"/>
+    <n v="209"/>
+    <n v="52.25"/>
+  </r>
+  <r>
+    <d v="2016-07-09T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="134"/>
+    <n v="95"/>
+    <n v="80"/>
+    <n v="126"/>
+    <n v="0.25"/>
+    <n v="229"/>
+    <n v="57.25"/>
+  </r>
+  <r>
+    <d v="2016-07-10T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="98"/>
+    <n v="82"/>
+    <n v="131"/>
+    <n v="0.25"/>
+    <n v="238"/>
+    <n v="59.5"/>
+  </r>
+  <r>
+    <d v="2016-07-11T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="162"/>
+    <n v="120"/>
+    <n v="83"/>
+    <n v="135"/>
+    <n v="0.25"/>
+    <n v="282"/>
+    <n v="70.5"/>
+  </r>
+  <r>
+    <d v="2016-07-12T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="130"/>
+    <n v="95"/>
+    <n v="84"/>
+    <n v="99"/>
+    <n v="0.25"/>
+    <n v="225"/>
+    <n v="56.25"/>
+  </r>
+  <r>
+    <d v="2016-07-13T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="109"/>
+    <n v="75"/>
+    <n v="77"/>
+    <n v="99"/>
+    <n v="0.25"/>
+    <n v="184"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <d v="2016-07-14T00:00:00"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="85"/>
+    <n v="78"/>
+    <n v="113"/>
+    <n v="0.25"/>
+    <n v="207"/>
+    <n v="51.75"/>
+  </r>
+  <r>
+    <d v="2016-07-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="62"/>
+    <n v="75"/>
+    <n v="108"/>
+    <n v="0.5"/>
+    <n v="160"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <d v="2016-07-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="50"/>
+    <n v="74"/>
+    <n v="90"/>
+    <n v="0.5"/>
+    <n v="131"/>
+    <n v="65.5"/>
+  </r>
+  <r>
+    <d v="2016-07-17T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="115"/>
+    <n v="76"/>
+    <n v="77"/>
+    <n v="126"/>
+    <n v="0.5"/>
+    <n v="191"/>
+    <n v="95.5"/>
+  </r>
+  <r>
+    <d v="2016-07-18T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="131"/>
+    <n v="92"/>
+    <n v="81"/>
+    <n v="122"/>
+    <n v="0.5"/>
+    <n v="223"/>
+    <n v="111.5"/>
+  </r>
+  <r>
+    <d v="2016-07-19T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="122"/>
+    <n v="85"/>
+    <n v="78"/>
+    <n v="113"/>
+    <n v="0.5"/>
+    <n v="207"/>
+    <n v="103.5"/>
+  </r>
+  <r>
+    <d v="2016-07-20T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="71"/>
+    <n v="42"/>
+    <n v="70"/>
+    <n v="109"/>
+    <n v="0.5"/>
+    <n v="113"/>
+    <n v="56.5"/>
+  </r>
+  <r>
+    <d v="2016-07-21T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="50"/>
+    <n v="77"/>
+    <n v="90"/>
+    <n v="0.5"/>
+    <n v="133"/>
+    <n v="66.5"/>
+  </r>
+  <r>
+    <d v="2016-07-22T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="112"/>
+    <n v="75"/>
+    <n v="80"/>
+    <n v="108"/>
+    <n v="0.5"/>
+    <n v="187"/>
+    <n v="93.5"/>
+  </r>
+  <r>
+    <d v="2016-07-23T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="120"/>
+    <n v="82"/>
+    <n v="81"/>
+    <n v="117"/>
+    <n v="0.5"/>
+    <n v="202"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <d v="2016-07-24T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="121"/>
+    <n v="82"/>
+    <n v="82"/>
+    <n v="117"/>
+    <n v="0.5"/>
+    <n v="203"/>
+    <n v="101.5"/>
+  </r>
+  <r>
+    <d v="2016-07-25T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="156"/>
+    <n v="113"/>
+    <n v="84"/>
+    <n v="135"/>
+    <n v="0.5"/>
+    <n v="269"/>
+    <n v="134.5"/>
+  </r>
+  <r>
+    <d v="2016-07-26T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="176"/>
+    <n v="129"/>
+    <n v="83"/>
+    <n v="158"/>
+    <n v="0.35"/>
+    <n v="305"/>
+    <n v="106.75"/>
+  </r>
+  <r>
+    <d v="2016-07-27T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="104"/>
+    <n v="68"/>
+    <n v="80"/>
+    <n v="99"/>
+    <n v="0.35"/>
+    <n v="172"/>
+    <n v="60.199999999999996"/>
+  </r>
+  <r>
+    <d v="2016-07-28T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="96"/>
+    <n v="63"/>
+    <n v="82"/>
+    <n v="90"/>
+    <n v="0.35"/>
+    <n v="159"/>
+    <n v="55.65"/>
+  </r>
+  <r>
+    <d v="2016-07-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="66"/>
+    <n v="81"/>
+    <n v="95"/>
+    <n v="0.35"/>
+    <n v="166"/>
+    <n v="58.099999999999994"/>
+  </r>
+  <r>
+    <d v="2016-07-30T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="88"/>
+    <n v="57"/>
+    <n v="82"/>
+    <n v="81"/>
+    <n v="0.35"/>
+    <n v="145"/>
+    <n v="50.75"/>
+  </r>
+  <r>
+    <d v="2016-07-31T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="47"/>
+    <n v="82"/>
+    <n v="68"/>
+    <n v="0.35"/>
+    <n v="123"/>
+    <n v="43.05"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Lemon" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Orange" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4847,12 +8216,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J33" totalsRowCount="1">
-  <autoFilter ref="A1:J33"/>
+  <autoFilter ref="A1:J32"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="5">
+    <tableColumn id="1" name="Date" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>COUNT(Table1[Date])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Day" dataDxfId="8" totalsRowDxfId="4">
+    <tableColumn id="10" name="Day" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table1[[#This Row],[Date]]),"dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Location"/>
@@ -4867,10 +8236,10 @@
     </tableColumn>
     <tableColumn id="6" name="Leaflets"/>
     <tableColumn id="7" name="Price"/>
-    <tableColumn id="8" name="Sales" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3">
+    <tableColumn id="8" name="Sales" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Revenue" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="9" name="Revenue" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Sales]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5141,26 +8510,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>331</v>
+      </c>
+      <c r="C5" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231</v>
+      </c>
+      <c r="C6" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>562</v>
+      </c>
+      <c r="C7" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>296</v>
+      </c>
+      <c r="C9" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>287</v>
+      </c>
+      <c r="C10" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>583</v>
+      </c>
+      <c r="C11" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>289</v>
+      </c>
+      <c r="C13" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>298</v>
+      </c>
+      <c r="C14" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>587</v>
+      </c>
+      <c r="C15" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>212</v>
+      </c>
+      <c r="C17" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
+        <v>387</v>
+      </c>
+      <c r="C19" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>265</v>
+      </c>
+      <c r="C21" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>444</v>
+      </c>
+      <c r="C23" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>221</v>
+      </c>
+      <c r="C25" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>309</v>
+      </c>
+      <c r="C26" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>530</v>
+      </c>
+      <c r="C27" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>303</v>
+      </c>
+      <c r="C29" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>218</v>
+      </c>
+      <c r="C30" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>521</v>
+      </c>
+      <c r="C31" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3614</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +8887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42552</v>
       </c>
@@ -5227,7 +8922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42553</v>
       </c>
@@ -5262,7 +8957,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42554</v>
       </c>
@@ -5297,7 +8992,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42555</v>
       </c>
@@ -5332,7 +9027,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42556</v>
       </c>
@@ -5367,7 +9062,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42557</v>
       </c>
@@ -5402,7 +9097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42558</v>
       </c>
@@ -5437,7 +9132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42559</v>
       </c>
@@ -5472,7 +9167,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42560</v>
       </c>
@@ -5507,7 +9202,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42561</v>
       </c>
@@ -5542,7 +9237,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42562</v>
       </c>
@@ -5577,7 +9272,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42563</v>
       </c>
@@ -5612,7 +9307,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42564</v>
       </c>
@@ -5647,7 +9342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42565</v>
       </c>
@@ -5682,7 +9377,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42566</v>
       </c>
@@ -5717,7 +9412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42567</v>
       </c>
@@ -5752,7 +9447,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42568</v>
       </c>
@@ -5787,7 +9482,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42569</v>
       </c>
@@ -5822,7 +9517,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42570</v>
       </c>
@@ -5857,7 +9552,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42571</v>
       </c>
@@ -5892,7 +9587,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42572</v>
       </c>
@@ -5927,7 +9622,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42573</v>
       </c>
@@ -5962,7 +9657,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42574</v>
       </c>
@@ -5997,7 +9692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42575</v>
       </c>
@@ -6032,7 +9727,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42576</v>
       </c>
@@ -6067,7 +9762,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42577</v>
       </c>
@@ -6102,7 +9797,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42578</v>
       </c>
@@ -6137,7 +9832,7 @@
         <v>60.199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42579</v>
       </c>
@@ -6172,7 +9867,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42580</v>
       </c>
@@ -6207,7 +9902,7 @@
         <v>58.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42581</v>
       </c>
@@ -6242,7 +9937,7 @@
         <v>50.75</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42582</v>
       </c>
@@ -6277,7 +9972,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>COUNT(Table1[Date])</f>
         <v>31</v>
@@ -6330,8 +10025,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6374,6 +10069,22 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!H2:H32</xm:f>
+              <xm:sqref>H33</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -6390,22 +10101,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet1!H2:H32</xm:f>
-              <xm:sqref>H33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">

--- a/module1/DAT101x_Labfiles/DAT101x_Labfiles/curated.xlsx
+++ b/module1/DAT101x_Labfiles/DAT101x_Labfiles/curated.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramneekm\Documents\datasc\module1\DAT101x_Labfiles\DAT101x_Labfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin17h\Documents\datasc\module1\DAT101x_Labfiles\DAT101x_Labfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
@@ -28,9 +31,9 @@
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$32</definedName>
     <definedName name="Slicer_Day">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -38,7 +41,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId7"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -140,16 +143,71 @@
   <si>
     <t>Sum of Orange</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -173,15 +231,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="double">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -189,34 +329,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -238,6 +679,100 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -252,7 +787,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -518,7 +1053,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40AA-43A2-8F42-F368AA9738B0}"/>
             </c:ext>
@@ -674,7 +1209,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-40AA-43A2-8F42-F368AA9738B0}"/>
             </c:ext>
@@ -690,11 +1225,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="605565832"/>
-        <c:axId val="605570096"/>
+        <c:axId val="521429456"/>
+        <c:axId val="521429848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="605565832"/>
+        <c:axId val="521429456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +1272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605570096"/>
+        <c:crossAx val="521429848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -745,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="605570096"/>
+        <c:axId val="521429848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +1331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605565832"/>
+        <c:crossAx val="521429456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -810,6 +1345,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -873,7 +1409,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -883,17 +1424,12 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -932,6 +1468,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,7 +1548,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -1113,7 +1650,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$2:$J$32</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
@@ -1212,7 +1749,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4072-478C-A87B-D3C3EE198EAB}"/>
             </c:ext>
@@ -1347,7 +1884,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4072-478C-A87B-D3C3EE198EAB}"/>
             </c:ext>
@@ -1362,11 +1899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="559895832"/>
-        <c:axId val="559896224"/>
+        <c:axId val="521430632"/>
+        <c:axId val="521431024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559895832"/>
+        <c:axId val="521430632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,6 +1935,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1427,7 +1965,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1464,14 +2002,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559896224"/>
+        <c:crossAx val="521431024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559896224"/>
+        <c:axId val="521431024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,6 +2055,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1546,7 +2085,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1577,7 +2116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559895832"/>
+        <c:crossAx val="521430632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,6 +2130,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1658,7 +2198,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1697,6 +2237,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,7 +2302,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -1961,7 +2502,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5A52-4AE4-8E39-85EA67CFF5A5}"/>
             </c:ext>
@@ -1995,7 +2536,7 @@
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>42552</c:v>
@@ -2195,7 +2736,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A52-4AE4-8E39-85EA67CFF5A5}"/>
             </c:ext>
@@ -2211,17 +2752,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="564710800"/>
-        <c:axId val="564710408"/>
+        <c:axId val="521433376"/>
+        <c:axId val="521433768"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="564710800"/>
+        <c:axId val="521433376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy/mm/dd" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2258,14 +2799,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564710408"/>
+        <c:crossAx val="521433768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564710408"/>
+        <c:axId val="521433768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564710800"/>
+        <c:crossAx val="521433376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2330,6 +2871,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2397,7 +2939,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2436,6 +2978,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2531,7 +3074,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8B69-46DD-9A88-74EDE57DE7D6}"/>
               </c:ext>
@@ -2556,7 +3099,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8B69-46DD-9A88-74EDE57DE7D6}"/>
               </c:ext>
@@ -2577,7 +3120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8B69-46DD-9A88-74EDE57DE7D6}"/>
             </c:ext>
@@ -2603,6 +3146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2670,7 +3214,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2714,6 +3258,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2979,7 +3524,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9DBC-43BF-A128-4E887A9D6D41}"/>
             </c:ext>
@@ -2993,11 +3538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="573884560"/>
-        <c:axId val="672207384"/>
+        <c:axId val="521434944"/>
+        <c:axId val="521435336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="573884560"/>
+        <c:axId val="521434944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,12 +3599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672207384"/>
+        <c:crossAx val="521435336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="672207384"/>
+        <c:axId val="521435336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573884560"/>
+        <c:crossAx val="521434944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7141,7 +7686,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E009339B-04A9-4E6D-9DC2-5E4E9EB52B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E009339B-04A9-4E6D-9DC2-5E4E9EB52B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7184,7 +7729,7 @@
             <xdr:cNvPr id="2" name="Day">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7260,7 +7805,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7296,7 +7841,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7332,7 +7877,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7368,7 +7913,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7400,7 +7945,7 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Chart 3">
@@ -7426,7 +7971,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -7478,7 +8023,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns="" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Chart 7">
@@ -7504,7 +8049,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="8" name="Rectangle 7"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -7589,7 +8134,7 @@
     <cacheField name="Sales" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="113" maxValue="305"/>
     </cacheField>
-    <cacheField name="Revenue" numFmtId="164">
+    <cacheField name="Revenue" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="41" maxValue="134.5"/>
     </cacheField>
   </cacheFields>
@@ -7979,7 +8524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="14" subtotalTop="0" showAll="0"/>
@@ -8008,7 +8553,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField numFmtId="164" subtotalTop="0" showAll="0"/>
+    <pivotField numFmtId="44" subtotalTop="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="1"/>
@@ -8218,10 +8763,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J33" totalsRowCount="1">
   <autoFilter ref="A1:J32"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Date" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Date" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>COUNT(Table1[Date])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" name="Day" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="10" name="Day" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table1[[#This Row],[Date]]),"dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Location"/>
@@ -8236,12 +8781,31 @@
     </tableColumn>
     <tableColumn id="6" name="Leaflets"/>
     <tableColumn id="7" name="Price"/>
-    <tableColumn id="8" name="Sales" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="8" name="Sales" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>Table1[[#This Row],[Lemon]]+Table1[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Revenue" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="9" name="Revenue" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Sales]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J33" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="11">
+  <autoFilter ref="A1:J33"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" name="Day" dataDxfId="9"/>
+    <tableColumn id="3" name="Location" dataDxfId="8"/>
+    <tableColumn id="4" name="Lemon" dataDxfId="7"/>
+    <tableColumn id="5" name="Orange" dataDxfId="6"/>
+    <tableColumn id="6" name="Temperature" dataDxfId="5"/>
+    <tableColumn id="7" name="Leaflets" dataDxfId="4"/>
+    <tableColumn id="8" name="Price" dataDxfId="3"/>
+    <tableColumn id="9" name="Sales" dataDxfId="2"/>
+    <tableColumn id="10" name="Revenue" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8512,21 +9076,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8537,14 +9101,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -8555,7 +9119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -8566,7 +9130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -8577,14 +9141,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -8595,7 +9159,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -8606,7 +9170,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -8617,14 +9181,14 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -8635,7 +9199,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +9210,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -8657,14 +9221,14 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +9239,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -8686,7 +9250,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -8697,14 +9261,14 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -8715,7 +9279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -8726,7 +9290,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -8737,14 +9301,14 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -8755,7 +9319,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -8766,7 +9330,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -8777,14 +9341,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -8795,7 +9359,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
@@ -8806,7 +9370,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
@@ -8817,7 +9381,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -8838,24 +9402,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8887,7 +9451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42552</v>
       </c>
@@ -8922,7 +9486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42553</v>
       </c>
@@ -8957,7 +9521,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42554</v>
       </c>
@@ -8992,7 +9556,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42555</v>
       </c>
@@ -9027,7 +9591,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42556</v>
       </c>
@@ -9062,7 +9626,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42557</v>
       </c>
@@ -9097,7 +9661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42558</v>
       </c>
@@ -9132,7 +9696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42559</v>
       </c>
@@ -9167,7 +9731,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42560</v>
       </c>
@@ -9202,7 +9766,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42561</v>
       </c>
@@ -9237,7 +9801,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42562</v>
       </c>
@@ -9272,7 +9836,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42563</v>
       </c>
@@ -9307,7 +9871,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42564</v>
       </c>
@@ -9342,7 +9906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42565</v>
       </c>
@@ -9377,7 +9941,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42566</v>
       </c>
@@ -9412,7 +9976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42567</v>
       </c>
@@ -9447,7 +10011,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42568</v>
       </c>
@@ -9482,7 +10046,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42569</v>
       </c>
@@ -9517,7 +10081,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42570</v>
       </c>
@@ -9552,7 +10116,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42571</v>
       </c>
@@ -9587,7 +10151,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42572</v>
       </c>
@@ -9622,7 +10186,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42573</v>
       </c>
@@ -9657,7 +10221,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42574</v>
       </c>
@@ -9692,7 +10256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42575</v>
       </c>
@@ -9727,7 +10291,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42576</v>
       </c>
@@ -9762,7 +10326,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42577</v>
       </c>
@@ -9797,7 +10361,7 @@
         <v>106.75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42578</v>
       </c>
@@ -9832,7 +10396,7 @@
         <v>60.199999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42579</v>
       </c>
@@ -9867,7 +10431,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42580</v>
       </c>
@@ -9902,7 +10466,7 @@
         <v>58.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42581</v>
       </c>
@@ -9937,7 +10501,7 @@
         <v>50.75</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42582</v>
       </c>
@@ -9972,7 +10536,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f>COUNT(Table1[Date])</f>
         <v>31</v>
@@ -10025,8 +10589,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="top10" dxfId="9" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="8" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10069,6 +10633,22 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!I2:I32</xm:f>
+              <xm:sqref>I34</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -10085,7 +10665,1964 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+      </x14:sparklineGroups>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="16">
+        <v>116.58064516129032</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16">
+        <v>80.354838709677423</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16">
+        <v>79.03125</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="16">
+        <v>109.16129032258064</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.35806451612903217</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="16">
+        <v>381.5625</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="16">
+        <v>133.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="16">
+        <v>4.5451973486973731</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3.8485827898220442</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.73022916061749332</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="16">
+        <v>3.5599615722806837</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2.0359243256732815E-2</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="16">
+        <v>184.81741173505145</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="16">
+        <v>64.798794900557496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="16">
+        <v>115.79032258064515</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16">
+        <v>78.677419354838719</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="16">
+        <v>80.5</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16">
+        <v>108</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="16">
+        <v>196.5</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="16">
+        <v>59.849999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="16">
+        <v>98</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="16">
+        <v>67</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="16">
+        <v>82</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="16">
+        <v>90</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="16">
+        <v>187</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="16">
+        <v>25.711518936760235</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16">
+        <v>21.770871909128072</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4.1307999303423211</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="16">
+        <v>19.821027175188721</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.11335546905902438</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1045.4851609536088</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="16">
+        <v>366.55733829520386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="16">
+        <v>661.08220603538018</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16">
+        <v>473.97086368366183</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="16">
+        <v>17.063508064516128</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="16">
+        <v>392.87311827956972</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1.2849462365591435E-2</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1093039.2217741935</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="16">
+        <v>134364.28225806452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-0.20490559903993111</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-0.26791642751335099</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="16">
+        <v>-0.10185946169560189</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-8.1939331901566437E-2</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-1.7531353156375418</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="16">
+        <v>31.855159316015175</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="16">
+        <v>31.693290317067031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.3691093461117666</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.36503039852808694</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="16">
+        <v>-0.91705834731684821</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.30615488579246747</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.33716585048405046</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5.6382601050972774</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="16">
+        <v>5.6177016938878248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="16">
+        <v>105</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16">
+        <v>87</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="16">
+        <v>90</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5992</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="16">
+        <v>71</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="16">
+        <v>42</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="16">
+        <v>70</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="16">
+        <v>68</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="16">
+        <v>113</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="16">
+        <v>176</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="16">
+        <v>129</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="16">
+        <v>84</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="16">
+        <v>158</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="16">
+        <v>6105</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="16">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3730.5806451612902</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2571.3548387096776</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2529</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="16">
+        <v>3384</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="16">
+        <v>11.099999999999998</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="16">
+        <v>12210</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="16">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="17">
+        <v>32</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="17">
+        <v>32</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="17">
+        <v>32</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="17">
+        <v>31</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="17">
+        <v>31</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17">
+        <v>32</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="17">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.99671433953351229</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.4657039727062568</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.44206571378537107</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.85751196053478562</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.82633261245345546</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.28720914844232076</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-0.27053035854558855</v>
+      </c>
+      <c r="C6" s="16">
+        <v>-0.31808336893802641</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-3.3574567075296491E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3.2040478806507691E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4.5348189456358302E-2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4.5335805131229097E-2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.23992817174145417</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.84390480363353071</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-0.29257237534797398</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17">
+        <v>3.0999657018324422E-2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2.8204043458813086E-2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.24089291240074756</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.60059337025935267</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.70225907347496253</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.99813750121179801</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
+        <v>97</v>
+      </c>
+      <c r="E2" s="9">
+        <v>67</v>
+      </c>
+      <c r="F2" s="9">
+        <v>70</v>
+      </c>
+      <c r="G2" s="9">
+        <v>90</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="9">
+        <v>164</v>
+      </c>
+      <c r="J2" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>98</v>
+      </c>
+      <c r="E3" s="9">
+        <v>67</v>
+      </c>
+      <c r="F3" s="9">
+        <v>72</v>
+      </c>
+      <c r="G3" s="9">
+        <v>90</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="9">
+        <v>165</v>
+      </c>
+      <c r="J3" s="10">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>110</v>
+      </c>
+      <c r="E4" s="9">
+        <v>77</v>
+      </c>
+      <c r="F4" s="9">
+        <v>71</v>
+      </c>
+      <c r="G4" s="9">
+        <v>104</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="9">
+        <v>187</v>
+      </c>
+      <c r="J4" s="10">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>134</v>
+      </c>
+      <c r="E5" s="9">
+        <v>99</v>
+      </c>
+      <c r="F5" s="9">
+        <v>76</v>
+      </c>
+      <c r="G5" s="9">
+        <v>98</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="9">
+        <v>233</v>
+      </c>
+      <c r="J5" s="10">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>159</v>
+      </c>
+      <c r="E6" s="9">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9">
+        <v>78</v>
+      </c>
+      <c r="G6" s="9">
+        <v>135</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="9">
+        <v>277</v>
+      </c>
+      <c r="J6" s="10">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>103</v>
+      </c>
+      <c r="E7" s="9">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9">
+        <v>90</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="9">
+        <v>172</v>
+      </c>
+      <c r="J7" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>143</v>
+      </c>
+      <c r="E8" s="9">
+        <v>101</v>
+      </c>
+      <c r="F8" s="9">
+        <v>81</v>
+      </c>
+      <c r="G8" s="9">
+        <v>135</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="9">
+        <v>244</v>
+      </c>
+      <c r="J8" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>123</v>
+      </c>
+      <c r="E9" s="9">
+        <v>86</v>
+      </c>
+      <c r="F9" s="9">
+        <v>82</v>
+      </c>
+      <c r="G9" s="9">
+        <v>113</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="9">
+        <v>209</v>
+      </c>
+      <c r="J9" s="10">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>134</v>
+      </c>
+      <c r="E10" s="9">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9">
+        <v>80</v>
+      </c>
+      <c r="G10" s="9">
+        <v>126</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="9">
+        <v>229</v>
+      </c>
+      <c r="J10" s="10">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>140</v>
+      </c>
+      <c r="E11" s="9">
+        <v>98</v>
+      </c>
+      <c r="F11" s="9">
+        <v>82</v>
+      </c>
+      <c r="G11" s="9">
+        <v>131</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="9">
+        <v>238</v>
+      </c>
+      <c r="J11" s="10">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>162</v>
+      </c>
+      <c r="E12" s="9">
+        <v>120</v>
+      </c>
+      <c r="F12" s="9">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9">
+        <v>135</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="9">
+        <v>282</v>
+      </c>
+      <c r="J12" s="10">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>130</v>
+      </c>
+      <c r="E13" s="9">
+        <v>95</v>
+      </c>
+      <c r="F13" s="9">
+        <v>84</v>
+      </c>
+      <c r="G13" s="9">
+        <v>99</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="9">
+        <v>225</v>
+      </c>
+      <c r="J13" s="10">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>109</v>
+      </c>
+      <c r="E14" s="9">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9">
+        <v>99</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="9">
+        <v>184</v>
+      </c>
+      <c r="J14" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>122</v>
+      </c>
+      <c r="E15" s="9">
+        <v>85</v>
+      </c>
+      <c r="F15" s="9">
+        <v>78</v>
+      </c>
+      <c r="G15" s="9">
+        <v>113</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="9">
+        <v>207</v>
+      </c>
+      <c r="J15" s="10">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>98</v>
+      </c>
+      <c r="E16" s="9">
+        <v>62</v>
+      </c>
+      <c r="F16" s="9">
+        <v>75</v>
+      </c>
+      <c r="G16" s="9">
+        <v>108</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>160</v>
+      </c>
+      <c r="J16" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9">
+        <v>81</v>
+      </c>
+      <c r="E17" s="9">
+        <v>50</v>
+      </c>
+      <c r="F17" s="9">
+        <v>74</v>
+      </c>
+      <c r="G17" s="9">
+        <v>90</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>131</v>
+      </c>
+      <c r="J17" s="10">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>115</v>
+      </c>
+      <c r="E18" s="9">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9">
+        <v>77</v>
+      </c>
+      <c r="G18" s="9">
+        <v>126</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>191</v>
+      </c>
+      <c r="J18" s="10">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>131</v>
+      </c>
+      <c r="E19" s="9">
+        <v>92</v>
+      </c>
+      <c r="F19" s="9">
+        <v>81</v>
+      </c>
+      <c r="G19" s="9">
+        <v>122</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>223</v>
+      </c>
+      <c r="J19" s="10">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>122</v>
+      </c>
+      <c r="E20" s="9">
+        <v>85</v>
+      </c>
+      <c r="F20" s="9">
+        <v>78</v>
+      </c>
+      <c r="G20" s="9">
+        <v>113</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>207</v>
+      </c>
+      <c r="J20" s="10">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>71</v>
+      </c>
+      <c r="E21" s="9">
+        <v>42</v>
+      </c>
+      <c r="F21" s="9">
+        <v>70</v>
+      </c>
+      <c r="G21" s="9">
+        <v>109</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="9">
+        <v>113</v>
+      </c>
+      <c r="J21" s="10">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>83</v>
+      </c>
+      <c r="E22" s="9">
+        <v>50</v>
+      </c>
+      <c r="F22" s="9">
+        <v>77</v>
+      </c>
+      <c r="G22" s="9">
+        <v>90</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>133</v>
+      </c>
+      <c r="J22" s="10">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>112</v>
+      </c>
+      <c r="E23" s="9">
+        <v>75</v>
+      </c>
+      <c r="F23" s="9">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9">
+        <v>108</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>187</v>
+      </c>
+      <c r="J23" s="10">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9">
+        <v>120</v>
+      </c>
+      <c r="E24" s="9">
+        <v>82</v>
+      </c>
+      <c r="F24" s="9">
+        <v>81</v>
+      </c>
+      <c r="G24" s="9">
+        <v>117</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>202</v>
+      </c>
+      <c r="J24" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>121</v>
+      </c>
+      <c r="E25" s="9">
+        <v>82</v>
+      </c>
+      <c r="F25" s="9">
+        <v>82</v>
+      </c>
+      <c r="G25" s="9">
+        <v>117</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="9">
+        <v>203</v>
+      </c>
+      <c r="J25" s="10">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9">
+        <v>156</v>
+      </c>
+      <c r="E26" s="9">
+        <v>113</v>
+      </c>
+      <c r="F26" s="9">
+        <v>84</v>
+      </c>
+      <c r="G26" s="9">
+        <v>135</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="9">
+        <v>269</v>
+      </c>
+      <c r="J26" s="10">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9">
+        <v>176</v>
+      </c>
+      <c r="E27" s="9">
+        <v>129</v>
+      </c>
+      <c r="F27" s="9">
+        <v>83</v>
+      </c>
+      <c r="G27" s="9">
+        <v>158</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I27" s="9">
+        <v>305</v>
+      </c>
+      <c r="J27" s="10">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9">
+        <v>68</v>
+      </c>
+      <c r="F28" s="9">
+        <v>80</v>
+      </c>
+      <c r="G28" s="9">
+        <v>99</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I28" s="9">
+        <v>172</v>
+      </c>
+      <c r="J28" s="10">
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9">
+        <v>82</v>
+      </c>
+      <c r="G29" s="9">
+        <v>90</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I29" s="9">
+        <v>159</v>
+      </c>
+      <c r="J29" s="10">
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9">
+        <v>66</v>
+      </c>
+      <c r="F30" s="9">
+        <v>81</v>
+      </c>
+      <c r="G30" s="9">
+        <v>95</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I30" s="9">
+        <v>166</v>
+      </c>
+      <c r="J30" s="10">
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9">
+        <v>88</v>
+      </c>
+      <c r="E31" s="9">
+        <v>57</v>
+      </c>
+      <c r="F31" s="9">
+        <v>82</v>
+      </c>
+      <c r="G31" s="9">
+        <v>81</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I31" s="9">
+        <v>145</v>
+      </c>
+      <c r="J31" s="10">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9">
+        <v>76</v>
+      </c>
+      <c r="E32" s="9">
+        <v>47</v>
+      </c>
+      <c r="F32" s="9">
+        <v>82</v>
+      </c>
+      <c r="G32" s="9">
+        <v>68</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I32" s="9">
+        <v>123</v>
+      </c>
+      <c r="J32" s="10">
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
+        <v>116.58064516129032</v>
+      </c>
+      <c r="E33" s="13">
+        <v>80.354838709677423</v>
+      </c>
+      <c r="F33" s="13">
+        <v>84</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14">
+        <v>6105</v>
+      </c>
+      <c r="J33" s="15">
+        <v>2138</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I32">
+    <cfRule type="top10" dxfId="19" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J32">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E77937B-1123-4459-A87D-53014AF56E27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E77937B-1123-4459-A87D-53014AF56E27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{A6686B60-BC8A-4442-96DC-34D89044E768}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G2:G32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -10096,18 +12633,13 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!I2:I32</xm:f>
-              <xm:sqref>I34</xm:sqref>
+              <xm:f>Sheet3!H2:H32</xm:f>
+              <xm:sqref>H33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
-      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
   </extLst>
 </worksheet>
 </file>